--- a/staffbirthdaycalendar.xlsx
+++ b/staffbirthdaycalendar.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS\GBDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D8410F-5158-4016-8615-65BE795C25DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B197AAFB-4256-4437-AE7A-FDC6179E9D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{66FA298A-7E37-4602-AAEC-681245D64A6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66FA298A-7E37-4602-AAEC-681245D64A6A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="staffbirthdaycalendar" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">staffbirthdaycalendar!$A$1:$M$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>JANUARY</t>
   </si>
@@ -64,13 +70,71 @@
   </si>
   <si>
     <t>DECEMBER</t>
+  </si>
+  <si>
+    <t>DACULA, PAQUITO A.</t>
+  </si>
+  <si>
+    <t>ARANCES, MARIO O.</t>
+  </si>
+  <si>
+    <t>TALLEDO, SARAH JANE C.</t>
+  </si>
+  <si>
+    <t>FUENTES, JOHN MICHAEL K.</t>
+  </si>
+  <si>
+    <t>GICA, GRACE B.</t>
+  </si>
+  <si>
+    <t>SALIG, JULIVEN D.</t>
+  </si>
+  <si>
+    <t>BUASON, NELBOY L.</t>
+  </si>
+  <si>
+    <t>LOPEZ, GINA GRACE A.</t>
+  </si>
+  <si>
+    <t>CHIONG, RIE D.</t>
+  </si>
+  <si>
+    <t>ENCLONAR, JEROME R.</t>
+  </si>
+  <si>
+    <t>ANDAPO, JOHN C.</t>
+  </si>
+  <si>
+    <t>SALIG, JOVANI D.</t>
+  </si>
+  <si>
+    <t>DINOY, CHRISTINE F.</t>
+  </si>
+  <si>
+    <t>ROUTE 1</t>
+  </si>
+  <si>
+    <t>ROUTE 2</t>
+  </si>
+  <si>
+    <t>ROUTE 3</t>
+  </si>
+  <si>
+    <t>TSS &amp; DEALER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,11 +146,34 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,8 +186,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -188,29 +305,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Table details" xfId="1" xr:uid="{D29B7BF7-A262-4DCF-9C04-F7D8629E4E8F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,398 +741,501 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875D6851-B9DC-41A6-87BE-130EC6174327}">
-  <dimension ref="B2:L36"/>
+  <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="2.33203125" customWidth="1"/>
-    <col min="9" max="9" width="2.33203125" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="9" max="9" width="2.28515625" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="2:12" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="s">
+      <c r="D3" s="11"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5" t="s">
+      <c r="H3" s="16"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="F4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="22">
+        <v>2</v>
+      </c>
+      <c r="H4" s="26">
+        <v>1981</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="F5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="23">
+        <v>20</v>
+      </c>
+      <c r="H5" s="28">
+        <v>1996</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="23">
+        <v>24</v>
+      </c>
+      <c r="H6" s="28">
+        <v>1992</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="24">
+        <v>26</v>
+      </c>
+      <c r="H7" s="28">
+        <v>1988</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5" t="s">
+      <c r="D12" s="16"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5" t="s">
+      <c r="H12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1</v>
+      </c>
+      <c r="D13" s="28">
+        <v>1979</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="23">
+        <v>5</v>
+      </c>
+      <c r="H13" s="28">
+        <v>1994</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5" t="s">
+      <c r="D21" s="16"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="5" t="s">
+      <c r="H21" s="16"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="12"/>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="4"/>
-      <c r="C30" s="5" t="s">
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="23">
+        <v>26</v>
+      </c>
+      <c r="D22" s="28">
+        <v>1992</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="23">
+        <v>22</v>
+      </c>
+      <c r="L22" s="28">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5" t="s">
+      <c r="D30" s="16"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="5" t="s">
+      <c r="H30" s="16"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="6"/>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="12"/>
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="34">
+        <v>9</v>
+      </c>
+      <c r="D31" s="35">
+        <v>1967</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="23">
+        <v>14</v>
+      </c>
+      <c r="H31" s="28">
+        <v>1998</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="34">
+        <v>2</v>
+      </c>
+      <c r="L31" s="35">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="23">
+        <v>26</v>
+      </c>
+      <c r="D32" s="28">
+        <v>1984</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="J32" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="23">
+        <v>3</v>
+      </c>
+      <c r="L32" s="28">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>